--- a/CrowdSourcingStudy/Dialogues_test/Dialogues_first_edition/distance préférence.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues_first_edition/distance préférence.xlsx
@@ -207,10 +207,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,23 +524,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
       <c r="N1" t="s">
         <v>2</v>
       </c>
@@ -643,49 +643,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P6:P7" si="0">SUM(A7:O7)</f>
+        <f t="shared" ref="P7" si="0">SUM(A7:O7)</f>
         <v>12</v>
       </c>
     </row>
